--- a/medicine/Psychotrope/Setaria_italica/Setaria_italica.xlsx
+++ b/medicine/Psychotrope/Setaria_italica/Setaria_italica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sétaire d'Italie (Setaria italica) également appelée « panis », « millet des oiseaux » ou « petit mil » est une plante de la famille des Poacées (graminées), cultivée comme céréale pour ses graines. Le nom vernaculaire « millet des oiseaux » désigne aussi ses graines, qui servent notamment à l'alimentation des oiseaux domestiques.
 Plante annuelle à tiges droites et robustes, de 60 cm à 1,5 m de haut. Feuilles effilées de 10 à 20 mm de large, à gaine velue. Inflorescence en panicule dense de 20 à 30 cm de long. Ne forme pas de touffe. Les épis ne s'agrippent pas.
@@ -513,7 +525,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Alimentation humaine : culture vivrière en Asie du Sud-Est (Chine, Inde, Birmanie),Taïwan et en Afrique, consommée sous forme de bouillie ou de pain.
 Alimentation des oiseaux : graines pour oiseaux de volière .
@@ -545,7 +559,9 @@
           <t>Sous-espèces, variétés, formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Setaria italica f. breviseta Hubbard
